--- a/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 1 TEST\2024_SE160A_MATLAB_Spar_Student_Project\2024_SE160A_MATLAB_Spar_Student_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A26ED0E-57BC-4409-AA94-9FC7AC4B17DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A4DB7F-EA11-48C2-A48D-F9DE035A8A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output" sheetId="2" r:id="rId1"/>
@@ -2560,7 +2560,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{225EB9D5-E1CC-CB79-8973-ED3252AFD062}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F565DF-EDC5-E827-4F0F-2FFD473236FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2610,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC7F4F7-EEF3-FAA0-54D0-8B8D8AA3E84F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E6A48B-E563-F2AD-FFFC-E1ACD01D2127}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2660,7 +2660,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EFE02D5-C63C-F379-1E8A-63BE48D08013}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A207018-3287-14F3-5877-C7B2074CD416}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2710,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B57C1CA8-0D5B-CC4B-EE22-152F9A875E68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83218B3E-94D4-763A-177A-A17908A788E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2760,7 +2760,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C41C75-214B-CF41-83B6-3B9E6E763F45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFEC35D7-1869-D060-29FA-690828F3A27C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2810,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C04A58-3382-F049-5CC6-647E68351D08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29597AF9-2413-F574-F0D6-29B75C7C60FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,7 +2860,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FBAE99D-B8E6-512E-D989-F9D0BD92EA89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{595BA32E-8AEB-1BD1-AEA5-25855312EE72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2910,7 +2910,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C7F9598-EB33-13D9-BFB7-C1FCB966941D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB2A5682-BAC2-8DA0-AF8B-D4785FB5D542}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2960,7 +2960,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4170AA74-97CA-5C8A-FA6F-E150996F729F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7428547-9C02-8186-2678-E4979981331B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3010,7 +3010,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADD2D03B-61B7-DCDA-BF63-0FFD6A643B56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A74EEF3-F99E-61A1-D649-147EE00E08E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3060,7 +3060,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF42CE7-A3EA-8574-3198-3BFB6F1D5579}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB1396A6-3BA2-9706-C717-398F7C77804A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3110,7 +3110,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E95A40F-48AD-4D56-06B2-2C8516CCDA2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7DB29DF-DDAA-0602-BD3C-E337F30FECD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3160,7 +3160,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{601584DE-D421-9C71-CF10-CCF546B15B32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9345BFE2-694C-33BC-764F-ACDA09C828A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3210,7 +3210,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE512E72-8E97-396F-E564-22BD46577F23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB769424-FA45-ECB3-6934-D337FC5A4D46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3260,7 +3260,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57FE8E43-498B-9532-BFF5-E713B6C75439}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEEA365F-6099-D8E5-8BAA-F079CC144F5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3310,7 +3310,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57695D97-D1A2-8B0E-757C-5FF290C36008}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31EBEE06-6B9D-F458-EBBE-407E8B339786}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3360,7 +3360,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A5D6808-D9AC-DFE8-D593-D9F2EF9B3989}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B67C75-6533-9A8C-6FF5-C84DFA2D1846}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4294,7 +4294,7 @@
         <v>112</v>
       </c>
       <c r="G46" s="89">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H46" s="86">
         <v>0</v>
@@ -4316,7 +4316,7 @@
         <v>106</v>
       </c>
       <c r="G47" s="90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H47" s="93">
         <v>0</v>
@@ -4338,7 +4338,7 @@
         <v>107</v>
       </c>
       <c r="G48" s="90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H48" s="93">
         <v>0</v>
@@ -4360,7 +4360,7 @@
         <v>108</v>
       </c>
       <c r="G49" s="90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H49" s="93">
         <v>0</v>
@@ -4382,7 +4382,7 @@
         <v>117</v>
       </c>
       <c r="G50" s="90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H50" s="93">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>119</v>
       </c>
       <c r="G51" s="90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H51" s="93">
         <v>0</v>
@@ -4426,7 +4426,7 @@
         <v>121</v>
       </c>
       <c r="G52" s="91">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H52" s="94">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>73</v>
       </c>
       <c r="G150" s="95">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H150" s="21" t="s">
         <v>45</v>
@@ -5836,7 +5836,7 @@
         <v>71</v>
       </c>
       <c r="G151" s="96">
-        <v>154.75714285714287</v>
+        <v>164.75714285714287</v>
       </c>
       <c r="H151" s="32" t="s">
         <v>45</v>
@@ -5852,7 +5852,7 @@
         <v>72</v>
       </c>
       <c r="G152" s="96">
-        <v>2450.7528124969222</v>
+        <v>2460.7528124969222</v>
       </c>
       <c r="H152" s="32" t="s">
         <v>45</v>
@@ -5868,7 +5868,7 @@
         <v>74</v>
       </c>
       <c r="G153" s="96">
-        <v>6000</v>
+        <v>6010</v>
       </c>
       <c r="H153" s="32" t="s">
         <v>77</v>
@@ -5884,7 +5884,7 @@
         <v>75</v>
       </c>
       <c r="G154" s="96">
-        <v>-111264.30729151274</v>
+        <v>-111754.30729151274</v>
       </c>
       <c r="H154" s="32" t="s">
         <v>77</v>
@@ -5900,7 +5900,7 @@
         <v>76</v>
       </c>
       <c r="G155" s="97">
-        <v>8853.75</v>
+        <v>9363.75</v>
       </c>
       <c r="H155" s="22" t="s">
         <v>77</v>
@@ -7831,16 +7831,16 @@
         <v>78</v>
       </c>
       <c r="G298" s="98">
-        <v>-14.306847027370342</v>
+        <v>-14.366670252945005</v>
       </c>
       <c r="H298" s="99">
-        <v>1.1384535611829807</v>
+        <v>1.2072146711930123</v>
       </c>
       <c r="I298" s="100">
-        <v>14.306847027370342</v>
+        <v>14.37303645066868</v>
       </c>
       <c r="J298" s="100">
-        <v>-1.1384535611829807</v>
+        <v>-1.2008484734693365</v>
       </c>
       <c r="K298" s="66" t="s">
         <v>49</v>
@@ -7862,13 +7862,13 @@
         <v>79</v>
       </c>
       <c r="G299" s="106">
-        <v>-0.28723154969610915</v>
+        <v>-0.2815082736503568</v>
       </c>
       <c r="H299" s="107">
         <v>0</v>
       </c>
       <c r="I299" s="108">
-        <v>0.48427446381205219</v>
+        <v>0.49128358321365151</v>
       </c>
       <c r="J299" s="108">
         <v>0</v>
@@ -7896,13 +7896,13 @@
         <v>0</v>
       </c>
       <c r="H300" s="107">
-        <v>1.1744446908669197</v>
+        <v>1.1801679669126719</v>
       </c>
       <c r="I300" s="108">
         <v>0</v>
       </c>
       <c r="J300" s="108">
-        <v>1.945950704375081</v>
+        <v>1.9529598237766803</v>
       </c>
       <c r="K300" s="66" t="s">
         <v>49</v>
@@ -7924,16 +7924,16 @@
         <v>14</v>
       </c>
       <c r="G301" s="101">
-        <v>1.002492265856382</v>
+        <v>0.99421095741095544</v>
       </c>
       <c r="H301" s="102">
-        <v>24.180356620676555</v>
+        <v>11.075387722613637</v>
       </c>
       <c r="I301" s="103">
-        <v>1.0002678016416993</v>
+        <v>0.99098917145939636</v>
       </c>
       <c r="J301" s="103">
-        <v>24.180356620676555</v>
+        <v>6.9863544476421247</v>
       </c>
       <c r="K301" s="43">
         <v>1</v>
@@ -8623,7 +8623,7 @@
         <v>183</v>
       </c>
       <c r="G352" s="109">
-        <v>0</v>
+        <v>1.5915494309189591E-5</v>
       </c>
       <c r="H352" s="21" t="s">
         <v>22</v>
@@ -8639,7 +8639,7 @@
         <v>43</v>
       </c>
       <c r="G353" s="110">
-        <v>6.0410590049284091E-2</v>
+        <v>6.3158390619947102E-2</v>
       </c>
       <c r="H353" s="32" t="s">
         <v>22</v>
@@ -8655,7 +8655,7 @@
         <v>41</v>
       </c>
       <c r="G354" s="111">
-        <v>0.67384530726401448</v>
+        <v>0.67640214099965068</v>
       </c>
       <c r="H354" s="22" t="s">
         <v>22</v>
@@ -8671,7 +8671,7 @@
         <v>185</v>
       </c>
       <c r="G355" s="124">
-        <v>6.1597119942547407E-2</v>
+        <v>6.1694378552983008E-2</v>
       </c>
       <c r="H355" s="125" t="s">
         <v>42</v>
@@ -8687,7 +8687,7 @@
         <v>186</v>
       </c>
       <c r="G356" s="110">
-        <v>8.2511818423049242E-4</v>
+        <v>8.5821910230179964E-4</v>
       </c>
       <c r="H356" s="32" t="s">
         <v>187</v>
@@ -8703,7 +8703,7 @@
         <v>189</v>
       </c>
       <c r="G357" s="111">
-        <v>8.8489401794835387E-3</v>
+        <v>8.8794948730878225E-3</v>
       </c>
       <c r="H357" s="22" t="s">
         <v>187</v>

--- a/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 1 TEST\2024_SE160A_MATLAB_Spar_Student_Project\2024_SE160A_MATLAB_Spar_Student_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A4DB7F-EA11-48C2-A48D-F9DE035A8A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59A3C59-0049-4DBC-8D83-3B2627B4E4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2560,7 +2560,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F565DF-EDC5-E827-4F0F-2FFD473236FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99939D69-1A4C-A86F-019A-078BE73C9941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2610,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E6A48B-E563-F2AD-FFFC-E1ACD01D2127}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2FB00FA-1813-E29E-5EF1-6B191D5EC453}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2660,7 +2660,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A207018-3287-14F3-5877-C7B2074CD416}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EFED847-D2AD-CF2F-0CE4-888F90C8F650}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2710,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83218B3E-94D4-763A-177A-A17908A788E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E4A863F-A934-B495-61B5-375987976620}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2760,7 +2760,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFEC35D7-1869-D060-29FA-690828F3A27C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB349BC0-65EE-4654-AD5D-1D2D81CEE293}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2810,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29597AF9-2413-F574-F0D6-29B75C7C60FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B06AE05-FC45-27EB-7C1F-7EA196A1D740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,7 +2860,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{595BA32E-8AEB-1BD1-AEA5-25855312EE72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{922C8623-1E74-B9A5-2432-02066AAAEC29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2910,7 +2910,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB2A5682-BAC2-8DA0-AF8B-D4785FB5D542}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B12204C3-DF7D-8A27-7E8A-B8AF8663438F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2960,7 +2960,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7428547-9C02-8186-2678-E4979981331B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E7AFAC-D908-C537-6C8B-32383F1A1573}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3010,7 +3010,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A74EEF3-F99E-61A1-D649-147EE00E08E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9434C22A-F18C-3CAF-3FF4-39176A121FF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3060,7 +3060,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB1396A6-3BA2-9706-C717-398F7C77804A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C470DEB-94E0-5FF3-86BF-AD6DF221BCCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3110,7 +3110,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7DB29DF-DDAA-0602-BD3C-E337F30FECD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F431D9-944A-6E2E-79F0-04E092C50160}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3160,7 +3160,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9345BFE2-694C-33BC-764F-ACDA09C828A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E93598C3-F41E-E4B6-3639-7E59D406AA0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3210,7 +3210,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB769424-FA45-ECB3-6934-D337FC5A4D46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E8802B-DE16-3074-24EB-CCA98A17E3BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3260,7 +3260,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEEA365F-6099-D8E5-8BAA-F079CC144F5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A3C11D7-8D5C-59E7-4D7A-8DDB50629ED6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3310,7 +3310,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31EBEE06-6B9D-F458-EBBE-407E8B339786}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D04B1BAC-517A-B06A-7972-EB5CBE8F68F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3360,7 +3360,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B67C75-6533-9A8C-6FF5-C84DFA2D1846}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFCF9B6-8B6A-BA83-2790-5433A9224F22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4294,7 +4294,7 @@
         <v>112</v>
       </c>
       <c r="G46" s="89">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H46" s="86">
         <v>0</v>
@@ -4316,7 +4316,7 @@
         <v>106</v>
       </c>
       <c r="G47" s="90">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H47" s="93">
         <v>0</v>
@@ -4338,7 +4338,7 @@
         <v>107</v>
       </c>
       <c r="G48" s="90">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H48" s="93">
         <v>0</v>
@@ -4360,7 +4360,7 @@
         <v>108</v>
       </c>
       <c r="G49" s="90">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H49" s="93">
         <v>0</v>
@@ -4382,7 +4382,7 @@
         <v>117</v>
       </c>
       <c r="G50" s="90">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H50" s="93">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>119</v>
       </c>
       <c r="G51" s="90">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H51" s="93">
         <v>0</v>
@@ -4426,7 +4426,7 @@
         <v>121</v>
       </c>
       <c r="G52" s="91">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H52" s="94">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>73</v>
       </c>
       <c r="G150" s="95">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H150" s="21" t="s">
         <v>45</v>
@@ -5836,7 +5836,7 @@
         <v>71</v>
       </c>
       <c r="G151" s="96">
-        <v>164.75714285714287</v>
+        <v>154.75714285714287</v>
       </c>
       <c r="H151" s="32" t="s">
         <v>45</v>
@@ -5852,7 +5852,7 @@
         <v>72</v>
       </c>
       <c r="G152" s="96">
-        <v>2460.7528124969222</v>
+        <v>2450.7528124969222</v>
       </c>
       <c r="H152" s="32" t="s">
         <v>45</v>
@@ -5868,7 +5868,7 @@
         <v>74</v>
       </c>
       <c r="G153" s="96">
-        <v>6010</v>
+        <v>6000</v>
       </c>
       <c r="H153" s="32" t="s">
         <v>77</v>
@@ -5884,7 +5884,7 @@
         <v>75</v>
       </c>
       <c r="G154" s="96">
-        <v>-111754.30729151274</v>
+        <v>-111264.30729151274</v>
       </c>
       <c r="H154" s="32" t="s">
         <v>77</v>
@@ -5900,7 +5900,7 @@
         <v>76</v>
       </c>
       <c r="G155" s="97">
-        <v>9363.75</v>
+        <v>8853.75</v>
       </c>
       <c r="H155" s="22" t="s">
         <v>77</v>
@@ -7831,16 +7831,16 @@
         <v>78</v>
       </c>
       <c r="G298" s="98">
-        <v>-14.366670252945005</v>
+        <v>-14.306847027370342</v>
       </c>
       <c r="H298" s="99">
-        <v>1.2072146711930123</v>
+        <v>1.1384535611829807</v>
       </c>
       <c r="I298" s="100">
-        <v>14.37303645066868</v>
+        <v>14.306847027370342</v>
       </c>
       <c r="J298" s="100">
-        <v>-1.2008484734693365</v>
+        <v>-1.1384535611829807</v>
       </c>
       <c r="K298" s="66" t="s">
         <v>49</v>
@@ -7862,13 +7862,13 @@
         <v>79</v>
       </c>
       <c r="G299" s="106">
-        <v>-0.2815082736503568</v>
+        <v>-0.28723154969610915</v>
       </c>
       <c r="H299" s="107">
         <v>0</v>
       </c>
       <c r="I299" s="108">
-        <v>0.49128358321365151</v>
+        <v>0.48427446381205219</v>
       </c>
       <c r="J299" s="108">
         <v>0</v>
@@ -7896,13 +7896,13 @@
         <v>0</v>
       </c>
       <c r="H300" s="107">
-        <v>1.1801679669126719</v>
+        <v>1.1744446908669197</v>
       </c>
       <c r="I300" s="108">
         <v>0</v>
       </c>
       <c r="J300" s="108">
-        <v>1.9529598237766803</v>
+        <v>1.945950704375081</v>
       </c>
       <c r="K300" s="66" t="s">
         <v>49</v>
@@ -7924,16 +7924,16 @@
         <v>14</v>
       </c>
       <c r="G301" s="101">
-        <v>0.99421095741095544</v>
+        <v>1.002492265856382</v>
       </c>
       <c r="H301" s="102">
-        <v>11.075387722613637</v>
+        <v>11.297473084438773</v>
       </c>
       <c r="I301" s="103">
-        <v>0.99098917145939636</v>
+        <v>1.0002678016416993</v>
       </c>
       <c r="J301" s="103">
-        <v>6.9863544476421247</v>
+        <v>7.0579523003177087</v>
       </c>
       <c r="K301" s="43">
         <v>1</v>
@@ -8623,7 +8623,7 @@
         <v>183</v>
       </c>
       <c r="G352" s="109">
-        <v>1.5915494309189591E-5</v>
+        <v>0</v>
       </c>
       <c r="H352" s="21" t="s">
         <v>22</v>
@@ -8639,7 +8639,7 @@
         <v>43</v>
       </c>
       <c r="G353" s="110">
-        <v>6.3158390619947102E-2</v>
+        <v>6.0410590049284091E-2</v>
       </c>
       <c r="H353" s="32" t="s">
         <v>22</v>
@@ -8655,7 +8655,7 @@
         <v>41</v>
       </c>
       <c r="G354" s="111">
-        <v>0.67640214099965068</v>
+        <v>0.67384530726401448</v>
       </c>
       <c r="H354" s="22" t="s">
         <v>22</v>
@@ -8671,7 +8671,7 @@
         <v>185</v>
       </c>
       <c r="G355" s="124">
-        <v>6.1694378552983008E-2</v>
+        <v>6.1597119942547407E-2</v>
       </c>
       <c r="H355" s="125" t="s">
         <v>42</v>
@@ -8687,7 +8687,7 @@
         <v>186</v>
       </c>
       <c r="G356" s="110">
-        <v>8.5821910230179964E-4</v>
+        <v>8.2511818423049242E-4</v>
       </c>
       <c r="H356" s="32" t="s">
         <v>187</v>
@@ -8703,7 +8703,7 @@
         <v>189</v>
       </c>
       <c r="G357" s="111">
-        <v>8.8794948730878225E-3</v>
+        <v>8.8489401794835387E-3</v>
       </c>
       <c r="H357" s="22" t="s">
         <v>187</v>

--- a/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 1 TEST\2024_SE160A_MATLAB_Spar_Student_Project\2024_SE160A_MATLAB_Spar_Student_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59A3C59-0049-4DBC-8D83-3B2627B4E4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47085BD3-D6B9-4E0E-B8F7-78477AED8617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2560,7 +2560,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99939D69-1A4C-A86F-019A-078BE73C9941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77C977D6-0279-C0A4-AFA0-568B4EED3D14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2610,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2FB00FA-1813-E29E-5EF1-6B191D5EC453}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F5D6CB-1CFF-7A0C-D211-E527F7681FA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2660,7 +2660,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EFED847-D2AD-CF2F-0CE4-888F90C8F650}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC8557F0-5AA3-6BF7-1AC7-FD2A4C7DB530}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2710,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E4A863F-A934-B495-61B5-375987976620}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C8E773-3226-02CA-F692-345B10F0676C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2760,7 +2760,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB349BC0-65EE-4654-AD5D-1D2D81CEE293}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{227B1F3B-A8CC-F269-50B5-26E4B330BE18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2810,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B06AE05-FC45-27EB-7C1F-7EA196A1D740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC2E2BD-FCAE-0BAF-3D67-476184849459}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,7 +2860,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{922C8623-1E74-B9A5-2432-02066AAAEC29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F1E814-4C65-A6F1-96EB-52EC334E72CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2910,7 +2910,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B12204C3-DF7D-8A27-7E8A-B8AF8663438F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{365A9E3A-A334-75D9-4C6A-5407900DD0F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2960,7 +2960,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E7AFAC-D908-C537-6C8B-32383F1A1573}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{850ECADD-6FB9-55A7-3A09-23F10BC41862}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3010,7 +3010,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9434C22A-F18C-3CAF-3FF4-39176A121FF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98A0B41-45E8-7337-6FFF-C8593349C532}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3060,7 +3060,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C470DEB-94E0-5FF3-86BF-AD6DF221BCCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6DF254-DF15-51CA-0B5D-D1790A2EF671}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3110,7 +3110,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F431D9-944A-6E2E-79F0-04E092C50160}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC5A6F83-16B8-3EDC-E503-CA90C48BC410}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3160,7 +3160,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E93598C3-F41E-E4B6-3639-7E59D406AA0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B978E9C-D04B-9EE7-CD86-C9A0560DBF9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3210,7 +3210,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E8802B-DE16-3074-24EB-CCA98A17E3BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F84E92-F4B4-1D06-6491-12925A0D951E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3260,7 +3260,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A3C11D7-8D5C-59E7-4D7A-8DDB50629ED6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7702ADB-23C0-0687-9714-BE1426FDC1EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3310,7 +3310,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D04B1BAC-517A-B06A-7972-EB5CBE8F68F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2008CF87-4C9B-581B-113C-4BA5E76473D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3360,7 +3360,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFCF9B6-8B6A-BA83-2790-5433A9224F22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{055EB625-AC6D-DD7E-2316-8A93FF45C4A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 1 TEST\2024_SE160A_MATLAB_Spar_Student_Project\2024_SE160A_MATLAB_Spar_Student_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47085BD3-D6B9-4E0E-B8F7-78477AED8617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7A0290-1F31-4368-8783-2FC28EA75199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2560,7 +2560,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77C977D6-0279-C0A4-AFA0-568B4EED3D14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B2ED65D-E529-B4DF-6B24-5AC9B11AE8EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2610,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F5D6CB-1CFF-7A0C-D211-E527F7681FA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3732453B-E46D-2661-CD76-4BA859F1E935}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2660,7 +2660,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC8557F0-5AA3-6BF7-1AC7-FD2A4C7DB530}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57F0D029-D75A-2A0D-5798-0C27BAC9C8F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2710,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C8E773-3226-02CA-F692-345B10F0676C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A471F947-69D7-9A09-4D99-9C11E4F33827}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2760,7 +2760,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{227B1F3B-A8CC-F269-50B5-26E4B330BE18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F03CB6-D0F2-7322-5941-4A07D93593BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2810,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC2E2BD-FCAE-0BAF-3D67-476184849459}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{568FF34D-960B-3D0E-9DF2-2CDD2E6DD606}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,7 +2860,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F1E814-4C65-A6F1-96EB-52EC334E72CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AFA6F08-84B5-E942-9BA1-6EBB98DFDFE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2910,7 +2910,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{365A9E3A-A334-75D9-4C6A-5407900DD0F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{437D7708-8245-EC30-8FEC-3D63CFDEA43E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2960,7 +2960,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{850ECADD-6FB9-55A7-3A09-23F10BC41862}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD173CB6-4EE0-F1F2-22BB-0F74A7665342}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3010,7 +3010,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98A0B41-45E8-7337-6FFF-C8593349C532}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B20C56F4-FC8C-0939-203F-CFB93F98BF46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3060,7 +3060,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6DF254-DF15-51CA-0B5D-D1790A2EF671}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C012A9F0-EB9B-2FB2-1D8E-E05A1479F5B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3110,7 +3110,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC5A6F83-16B8-3EDC-E503-CA90C48BC410}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E72BA74-79B5-3BF9-74C1-EAD30F2946CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3160,7 +3160,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B978E9C-D04B-9EE7-CD86-C9A0560DBF9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63FBF80-8BB7-0468-67A6-C5BBE1642295}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3210,7 +3210,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F84E92-F4B4-1D06-6491-12925A0D951E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D75F54E-CDC4-99DD-8B3A-EAFE51E554CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3260,7 +3260,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7702ADB-23C0-0687-9714-BE1426FDC1EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C691F84-5B94-2BB5-4D30-D3E1D3BC3084}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3310,7 +3310,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2008CF87-4C9B-581B-113C-4BA5E76473D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B16E30E5-2DDB-8526-50E3-22B94EDE28D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3360,7 +3360,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{055EB625-AC6D-DD7E-2316-8A93FF45C4A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76EBE56E-CA94-7109-CE4A-A609F4D0C10D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4294,10 +4294,10 @@
         <v>112</v>
       </c>
       <c r="G46" s="89">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H46" s="86">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I46" s="9">
         <v>1</v>
@@ -4316,10 +4316,10 @@
         <v>106</v>
       </c>
       <c r="G47" s="90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H47" s="93">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I47" s="48" t="s">
         <v>45</v>
@@ -4338,10 +4338,10 @@
         <v>107</v>
       </c>
       <c r="G48" s="90">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H48" s="93">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I48" s="48" t="s">
         <v>45</v>
@@ -4360,10 +4360,10 @@
         <v>108</v>
       </c>
       <c r="G49" s="90">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H49" s="93">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I49" s="48" t="s">
         <v>45</v>
@@ -4382,10 +4382,10 @@
         <v>117</v>
       </c>
       <c r="G50" s="90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H50" s="93">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I50" s="48" t="s">
         <v>45</v>
@@ -4404,10 +4404,10 @@
         <v>119</v>
       </c>
       <c r="G51" s="90">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H51" s="93">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I51" s="48" t="s">
         <v>45</v>
@@ -4426,10 +4426,10 @@
         <v>121</v>
       </c>
       <c r="G52" s="91">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H52" s="94">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I52" s="49" t="s">
         <v>45</v>
@@ -5820,7 +5820,7 @@
         <v>73</v>
       </c>
       <c r="G150" s="95">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H150" s="21" t="s">
         <v>45</v>
@@ -5836,7 +5836,7 @@
         <v>71</v>
       </c>
       <c r="G151" s="96">
-        <v>154.75714285714287</v>
+        <v>194.75714285714287</v>
       </c>
       <c r="H151" s="32" t="s">
         <v>45</v>
@@ -5852,7 +5852,7 @@
         <v>72</v>
       </c>
       <c r="G152" s="96">
-        <v>2450.7528124969222</v>
+        <v>2510.7528124969222</v>
       </c>
       <c r="H152" s="32" t="s">
         <v>45</v>
@@ -5868,7 +5868,7 @@
         <v>74</v>
       </c>
       <c r="G153" s="96">
-        <v>6000</v>
+        <v>6020</v>
       </c>
       <c r="H153" s="32" t="s">
         <v>77</v>
@@ -5884,7 +5884,7 @@
         <v>75</v>
       </c>
       <c r="G154" s="96">
-        <v>-111264.30729151274</v>
+        <v>-114224.30729151274</v>
       </c>
       <c r="H154" s="32" t="s">
         <v>77</v>
@@ -5900,7 +5900,7 @@
         <v>76</v>
       </c>
       <c r="G155" s="97">
-        <v>8853.75</v>
+        <v>10913.75</v>
       </c>
       <c r="H155" s="22" t="s">
         <v>77</v>
@@ -7831,16 +7831,16 @@
         <v>78</v>
       </c>
       <c r="G298" s="98">
-        <v>-14.306847027370342</v>
+        <v>-14.681090462977359</v>
       </c>
       <c r="H298" s="99">
-        <v>1.1384535611829807</v>
+        <v>1.4097034902111252</v>
       </c>
       <c r="I298" s="100">
-        <v>14.306847027370342</v>
+        <v>14.69382285842471</v>
       </c>
       <c r="J298" s="100">
-        <v>-1.1384535611829807</v>
+        <v>-1.3969710947637737</v>
       </c>
       <c r="K298" s="66" t="s">
         <v>49</v>
@@ -7862,13 +7862,13 @@
         <v>79</v>
       </c>
       <c r="G299" s="106">
-        <v>-0.28723154969610915</v>
+        <v>-0.26305260215725279</v>
       </c>
       <c r="H299" s="107">
         <v>0</v>
       </c>
       <c r="I299" s="108">
-        <v>0.48427446381205219</v>
+        <v>0.51102509806260243</v>
       </c>
       <c r="J299" s="108">
         <v>0</v>
@@ -7896,13 +7896,13 @@
         <v>0</v>
       </c>
       <c r="H300" s="107">
-        <v>1.1744446908669197</v>
+        <v>1.2113560338531277</v>
       </c>
       <c r="I300" s="108">
         <v>0</v>
       </c>
       <c r="J300" s="108">
-        <v>1.945950704375081</v>
+        <v>1.9854337340729828</v>
       </c>
       <c r="K300" s="66" t="s">
         <v>49</v>
@@ -7924,16 +7924,16 @@
         <v>14</v>
       </c>
       <c r="G301" s="101">
-        <v>1.002492265856382</v>
+        <v>0.95168551568860638</v>
       </c>
       <c r="H301" s="102">
-        <v>11.297473084438773</v>
+        <v>10.340877867052482</v>
       </c>
       <c r="I301" s="103">
-        <v>1.0002678016416993</v>
+        <v>0.94740323739203225</v>
       </c>
       <c r="J301" s="103">
-        <v>7.0579523003177087</v>
+        <v>6.723142396664727</v>
       </c>
       <c r="K301" s="43">
         <v>1</v>
@@ -8623,7 +8623,7 @@
         <v>183</v>
       </c>
       <c r="G352" s="109">
-        <v>0</v>
+        <v>3.1830988618379183E-5</v>
       </c>
       <c r="H352" s="21" t="s">
         <v>22</v>
@@ -8639,7 +8639,7 @@
         <v>43</v>
       </c>
       <c r="G353" s="110">
-        <v>6.0410590049284091E-2</v>
+        <v>7.3136407750095972E-2</v>
       </c>
       <c r="H353" s="32" t="s">
         <v>22</v>
@@ -8655,7 +8655,7 @@
         <v>41</v>
       </c>
       <c r="G354" s="111">
-        <v>0.67384530726401448</v>
+        <v>0.69179618975653112</v>
       </c>
       <c r="H354" s="22" t="s">
         <v>22</v>
@@ -8671,7 +8671,7 @@
         <v>185</v>
       </c>
       <c r="G355" s="124">
-        <v>6.1597119942547407E-2</v>
+        <v>6.1791637163418595E-2</v>
       </c>
       <c r="H355" s="125" t="s">
         <v>42</v>
@@ -8687,7 +8687,7 @@
         <v>186</v>
       </c>
       <c r="G356" s="110">
-        <v>8.2511818423049242E-4</v>
+        <v>9.9189588682054041E-4</v>
       </c>
       <c r="H356" s="32" t="s">
         <v>187</v>
@@ -8703,7 +8703,7 @@
         <v>189</v>
       </c>
       <c r="G357" s="111">
-        <v>8.8489401794835387E-3</v>
+        <v>9.0825562743329577E-3</v>
       </c>
       <c r="H357" s="22" t="s">
         <v>187</v>

--- a/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 1 TEST\2024_SE160A_MATLAB_Spar_Student_Project\2024_SE160A_MATLAB_Spar_Student_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7A0290-1F31-4368-8783-2FC28EA75199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A74C8F9-84E3-4056-970F-30FE4EB5FE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2560,7 +2560,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B2ED65D-E529-B4DF-6B24-5AC9B11AE8EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE89EE7-3767-B0B2-C823-FBC299DE7B03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2610,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3732453B-E46D-2661-CD76-4BA859F1E935}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4C17072-DF4D-C3B6-8EEF-28A2E0020E3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2660,7 +2660,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57F0D029-D75A-2A0D-5798-0C27BAC9C8F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{563435E3-180D-224D-5059-165D1A64DF48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2710,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A471F947-69D7-9A09-4D99-9C11E4F33827}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EAA1F5A-E5DC-207A-0FEE-5656EEFCD0AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2760,7 +2760,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F03CB6-D0F2-7322-5941-4A07D93593BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{744FBCAE-A285-305F-9F51-9937E190CA3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2810,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{568FF34D-960B-3D0E-9DF2-2CDD2E6DD606}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EA3A47D-C4B6-B1D9-99A1-CCE9FD4DF43E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,7 +2860,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AFA6F08-84B5-E942-9BA1-6EBB98DFDFE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75CBFD46-C2C6-88F0-C995-4286EAB39E6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2910,7 +2910,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{437D7708-8245-EC30-8FEC-3D63CFDEA43E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B7BF68E-C463-1549-EAFB-4E55364E96E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2960,7 +2960,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD173CB6-4EE0-F1F2-22BB-0F74A7665342}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FBAB8C-C75F-DB43-746F-3B13DE97C722}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3010,7 +3010,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B20C56F4-FC8C-0939-203F-CFB93F98BF46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{659F7740-66A2-32BF-FD69-EBE2637145EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3060,7 +3060,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C012A9F0-EB9B-2FB2-1D8E-E05A1479F5B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E3A71EC-413F-03D9-78C0-D3B38D39908B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3110,7 +3110,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E72BA74-79B5-3BF9-74C1-EAD30F2946CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10F01B9A-874A-192B-F1A1-D810580E39A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3160,7 +3160,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63FBF80-8BB7-0468-67A6-C5BBE1642295}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E341F61-A7AD-7552-AFC3-CABC63AA2E6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3210,7 +3210,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D75F54E-CDC4-99DD-8B3A-EAFE51E554CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49CFF3F2-B12A-F653-755D-C4E981292203}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3260,7 +3260,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C691F84-5B94-2BB5-4D30-D3E1D3BC3084}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB7D9DB4-BA33-8020-6A3C-16E687C26813}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3310,7 +3310,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B16E30E5-2DDB-8526-50E3-22B94EDE28D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B73F3D22-43FD-7724-3C6A-13FF29410F0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3360,7 +3360,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76EBE56E-CA94-7109-CE4A-A609F4D0C10D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1536805-DD0D-70B7-9263-44AEB24BD882}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 1 TEST\2024_SE160A_MATLAB_Spar_Student_Project\2024_SE160A_MATLAB_Spar_Student_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A74C8F9-84E3-4056-970F-30FE4EB5FE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299E5211-B341-4AFB-ACC1-BF911FDD5BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2560,7 +2560,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE89EE7-3767-B0B2-C823-FBC299DE7B03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14491D05-CEBF-4ADA-B7F9-168F97120C40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2610,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4C17072-DF4D-C3B6-8EEF-28A2E0020E3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7255948-C91F-A289-0992-0574976338AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2660,7 +2660,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{563435E3-180D-224D-5059-165D1A64DF48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48446F23-E9E8-E3D9-19AE-17BB0F3B7DFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2710,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EAA1F5A-E5DC-207A-0FEE-5656EEFCD0AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9991EBC3-8893-0728-D122-9D07A98E3E13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2760,7 +2760,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{744FBCAE-A285-305F-9F51-9937E190CA3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D58CF0A-1BAB-1FDD-D07B-80F649469625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2810,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EA3A47D-C4B6-B1D9-99A1-CCE9FD4DF43E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4837B68-EBED-2BBA-B2E4-6E0ACB36B72E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,7 +2860,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75CBFD46-C2C6-88F0-C995-4286EAB39E6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C0E7BD-2AAB-E7BC-ABF7-5B3D6DB2E9CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2910,7 +2910,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B7BF68E-C463-1549-EAFB-4E55364E96E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA2BC6AA-D4E3-E8AC-BCEE-19E0A5A4676D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2960,7 +2960,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FBAB8C-C75F-DB43-746F-3B13DE97C722}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4140AAF0-C5C6-2826-FEDE-5826E1928656}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3010,7 +3010,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{659F7740-66A2-32BF-FD69-EBE2637145EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0AC5482-1F9E-20E7-140B-BE3F2DD07963}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3060,7 +3060,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E3A71EC-413F-03D9-78C0-D3B38D39908B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30AA6BE2-9174-0E43-7E79-17964F54D0BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3110,7 +3110,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10F01B9A-874A-192B-F1A1-D810580E39A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E07C165-987A-E990-C3F3-303E62228207}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3160,7 +3160,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E341F61-A7AD-7552-AFC3-CABC63AA2E6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423BFB82-9F9F-3583-2E2D-4AF3055D632E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3210,7 +3210,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49CFF3F2-B12A-F653-755D-C4E981292203}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C7D0DBF-DE58-1B8F-A84D-728F9089F724}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3260,7 +3260,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB7D9DB4-BA33-8020-6A3C-16E687C26813}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5EFDFD0-CBDD-7128-88D8-899548EE9FCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3310,7 +3310,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B73F3D22-43FD-7724-3C6A-13FF29410F0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C3CA93-35E1-C654-EA67-DD8A193D4834}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3360,7 +3360,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1536805-DD0D-70B7-9263-44AEB24BD882}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{197F7E56-DAB7-389A-86EF-86CF5366D7F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4294,10 +4294,10 @@
         <v>112</v>
       </c>
       <c r="G46" s="89">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H46" s="86">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I46" s="9">
         <v>1</v>
@@ -4316,10 +4316,10 @@
         <v>106</v>
       </c>
       <c r="G47" s="90">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H47" s="93">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I47" s="48" t="s">
         <v>45</v>
@@ -4338,10 +4338,10 @@
         <v>107</v>
       </c>
       <c r="G48" s="90">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H48" s="93">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I48" s="48" t="s">
         <v>45</v>
@@ -4360,10 +4360,10 @@
         <v>108</v>
       </c>
       <c r="G49" s="90">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H49" s="93">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I49" s="48" t="s">
         <v>45</v>
@@ -4382,10 +4382,10 @@
         <v>117</v>
       </c>
       <c r="G50" s="90">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H50" s="93">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I50" s="48" t="s">
         <v>45</v>
@@ -4404,10 +4404,10 @@
         <v>119</v>
       </c>
       <c r="G51" s="90">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H51" s="93">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I51" s="48" t="s">
         <v>45</v>
@@ -4426,10 +4426,10 @@
         <v>121</v>
       </c>
       <c r="G52" s="91">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H52" s="94">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I52" s="49" t="s">
         <v>45</v>
@@ -5820,7 +5820,7 @@
         <v>73</v>
       </c>
       <c r="G150" s="95">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H150" s="21" t="s">
         <v>45</v>
@@ -5836,7 +5836,7 @@
         <v>71</v>
       </c>
       <c r="G151" s="96">
-        <v>194.75714285714287</v>
+        <v>154.75714285714287</v>
       </c>
       <c r="H151" s="32" t="s">
         <v>45</v>
@@ -5852,7 +5852,7 @@
         <v>72</v>
       </c>
       <c r="G152" s="96">
-        <v>2510.7528124969222</v>
+        <v>2450.7528124969222</v>
       </c>
       <c r="H152" s="32" t="s">
         <v>45</v>
@@ -5868,7 +5868,7 @@
         <v>74</v>
       </c>
       <c r="G153" s="96">
-        <v>6020</v>
+        <v>6000</v>
       </c>
       <c r="H153" s="32" t="s">
         <v>77</v>
@@ -5884,7 +5884,7 @@
         <v>75</v>
       </c>
       <c r="G154" s="96">
-        <v>-114224.30729151274</v>
+        <v>-111264.30729151274</v>
       </c>
       <c r="H154" s="32" t="s">
         <v>77</v>
@@ -5900,7 +5900,7 @@
         <v>76</v>
       </c>
       <c r="G155" s="97">
-        <v>10913.75</v>
+        <v>8853.75</v>
       </c>
       <c r="H155" s="22" t="s">
         <v>77</v>
@@ -7831,16 +7831,16 @@
         <v>78</v>
       </c>
       <c r="G298" s="98">
-        <v>-14.681090462977359</v>
+        <v>-14.306847027370342</v>
       </c>
       <c r="H298" s="99">
-        <v>1.4097034902111252</v>
+        <v>1.1384535611829807</v>
       </c>
       <c r="I298" s="100">
-        <v>14.69382285842471</v>
+        <v>14.306847027370342</v>
       </c>
       <c r="J298" s="100">
-        <v>-1.3969710947637737</v>
+        <v>-1.1384535611829807</v>
       </c>
       <c r="K298" s="66" t="s">
         <v>49</v>
@@ -7862,13 +7862,13 @@
         <v>79</v>
       </c>
       <c r="G299" s="106">
-        <v>-0.26305260215725279</v>
+        <v>-0.28723154969610915</v>
       </c>
       <c r="H299" s="107">
         <v>0</v>
       </c>
       <c r="I299" s="108">
-        <v>0.51102509806260243</v>
+        <v>0.48427446381205219</v>
       </c>
       <c r="J299" s="108">
         <v>0</v>
@@ -7896,13 +7896,13 @@
         <v>0</v>
       </c>
       <c r="H300" s="107">
-        <v>1.2113560338531277</v>
+        <v>1.1744446908669197</v>
       </c>
       <c r="I300" s="108">
         <v>0</v>
       </c>
       <c r="J300" s="108">
-        <v>1.9854337340729828</v>
+        <v>1.945950704375081</v>
       </c>
       <c r="K300" s="66" t="s">
         <v>49</v>
@@ -7924,16 +7924,16 @@
         <v>14</v>
       </c>
       <c r="G301" s="101">
-        <v>0.95168551568860638</v>
+        <v>1.002492265856382</v>
       </c>
       <c r="H301" s="102">
-        <v>10.340877867052482</v>
+        <v>11.297473084438773</v>
       </c>
       <c r="I301" s="103">
-        <v>0.94740323739203225</v>
+        <v>1.0002678016416993</v>
       </c>
       <c r="J301" s="103">
-        <v>6.723142396664727</v>
+        <v>7.0579523003177087</v>
       </c>
       <c r="K301" s="43">
         <v>1</v>
@@ -8623,7 +8623,7 @@
         <v>183</v>
       </c>
       <c r="G352" s="109">
-        <v>3.1830988618379183E-5</v>
+        <v>0</v>
       </c>
       <c r="H352" s="21" t="s">
         <v>22</v>
@@ -8639,7 +8639,7 @@
         <v>43</v>
       </c>
       <c r="G353" s="110">
-        <v>7.3136407750095972E-2</v>
+        <v>6.0410590049284091E-2</v>
       </c>
       <c r="H353" s="32" t="s">
         <v>22</v>
@@ -8655,7 +8655,7 @@
         <v>41</v>
       </c>
       <c r="G354" s="111">
-        <v>0.69179618975653112</v>
+        <v>0.67384530726401448</v>
       </c>
       <c r="H354" s="22" t="s">
         <v>22</v>
@@ -8671,7 +8671,7 @@
         <v>185</v>
       </c>
       <c r="G355" s="124">
-        <v>6.1791637163418595E-2</v>
+        <v>6.1597119942547407E-2</v>
       </c>
       <c r="H355" s="125" t="s">
         <v>42</v>
@@ -8687,7 +8687,7 @@
         <v>186</v>
       </c>
       <c r="G356" s="110">
-        <v>9.9189588682054041E-4</v>
+        <v>8.2511818423049242E-4</v>
       </c>
       <c r="H356" s="32" t="s">
         <v>187</v>
@@ -8703,7 +8703,7 @@
         <v>189</v>
       </c>
       <c r="G357" s="111">
-        <v>9.0825562743329577E-3</v>
+        <v>8.8489401794835387E-3</v>
       </c>
       <c r="H357" s="22" t="s">
         <v>187</v>

--- a/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 1 TEST\2024_SE160A_MATLAB_Spar_Student_Project\2024_SE160A_MATLAB_Spar_Student_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299E5211-B341-4AFB-ACC1-BF911FDD5BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE81504-D94C-42ED-BD06-A03C13F24220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2560,7 +2560,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14491D05-CEBF-4ADA-B7F9-168F97120C40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44450B71-6273-DA15-F3F1-917B7B7A150E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2610,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7255948-C91F-A289-0992-0574976338AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01EDE8B8-34D8-550A-D8AE-77B00985669F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2660,7 +2660,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48446F23-E9E8-E3D9-19AE-17BB0F3B7DFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{759EC6BD-1E88-580E-E518-BF3A26DC0A2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2710,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9991EBC3-8893-0728-D122-9D07A98E3E13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{041C26FD-FBD7-C6A8-4292-D30E7B19CDF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2760,7 +2760,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D58CF0A-1BAB-1FDD-D07B-80F649469625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{672BEF98-9AF0-6C60-78A7-E8435B82666C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2810,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4837B68-EBED-2BBA-B2E4-6E0ACB36B72E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA3FEFE8-7AD9-91FE-8CA4-68BCCA09C745}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,7 +2860,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C0E7BD-2AAB-E7BC-ABF7-5B3D6DB2E9CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F0F27B2-B7CF-58AB-014F-0CA5661C64D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2910,7 +2910,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA2BC6AA-D4E3-E8AC-BCEE-19E0A5A4676D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E05301-B007-922F-1833-ADB4D56B70F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2960,7 +2960,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4140AAF0-C5C6-2826-FEDE-5826E1928656}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B2494A9-3756-75EC-CE44-E3BA8BDA0370}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3010,7 +3010,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0AC5482-1F9E-20E7-140B-BE3F2DD07963}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D61A1C5-F32C-E907-75A9-FC5D3547F056}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3060,7 +3060,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30AA6BE2-9174-0E43-7E79-17964F54D0BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1618D0CF-1D63-F59E-C6C6-6D5D00B17055}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3110,7 +3110,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E07C165-987A-E990-C3F3-303E62228207}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D51DD1-9A2B-9FD2-06B0-F7AC747A50D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3160,7 +3160,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423BFB82-9F9F-3583-2E2D-4AF3055D632E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{721AB728-75F3-4311-4890-63DE6E3B6B50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3210,7 +3210,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C7D0DBF-DE58-1B8F-A84D-728F9089F724}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B6C48D-1C99-0F17-E1B7-196B8B94BE89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3260,7 +3260,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5EFDFD0-CBDD-7128-88D8-899548EE9FCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{197D2F00-9091-4641-F426-9959214850BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3310,7 +3310,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C3CA93-35E1-C654-EA67-DD8A193D4834}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489B9254-A3C3-1AB2-CDCD-D471CC2D1EEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3360,7 +3360,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{197F7E56-DAB7-389A-86EF-86CF5366D7F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBAF7C8D-614F-E19C-554A-476FDD061F60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4294,10 +4294,10 @@
         <v>112</v>
       </c>
       <c r="G46" s="89">
-        <v>0</v>
+        <v>0.2555</v>
       </c>
       <c r="H46" s="86">
-        <v>0</v>
+        <v>0.75549999999999995</v>
       </c>
       <c r="I46" s="9">
         <v>1</v>
@@ -4316,10 +4316,10 @@
         <v>106</v>
       </c>
       <c r="G47" s="90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H47" s="93">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I47" s="48" t="s">
         <v>45</v>
@@ -4338,10 +4338,10 @@
         <v>107</v>
       </c>
       <c r="G48" s="90">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H48" s="93">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I48" s="48" t="s">
         <v>45</v>
@@ -4360,10 +4360,10 @@
         <v>108</v>
       </c>
       <c r="G49" s="90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H49" s="93">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I49" s="48" t="s">
         <v>45</v>
@@ -4382,10 +4382,10 @@
         <v>117</v>
       </c>
       <c r="G50" s="90">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H50" s="93">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I50" s="48" t="s">
         <v>45</v>
@@ -4404,10 +4404,10 @@
         <v>119</v>
       </c>
       <c r="G51" s="90">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H51" s="93">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I51" s="48" t="s">
         <v>45</v>
@@ -4426,10 +4426,10 @@
         <v>121</v>
       </c>
       <c r="G52" s="91">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H52" s="94">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I52" s="49" t="s">
         <v>45</v>
@@ -5820,7 +5820,7 @@
         <v>73</v>
       </c>
       <c r="G150" s="95">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H150" s="21" t="s">
         <v>45</v>
@@ -5836,7 +5836,7 @@
         <v>71</v>
       </c>
       <c r="G151" s="96">
-        <v>154.75714285714287</v>
+        <v>374.75714285714287</v>
       </c>
       <c r="H151" s="32" t="s">
         <v>45</v>
@@ -5852,7 +5852,7 @@
         <v>72</v>
       </c>
       <c r="G152" s="96">
-        <v>2450.7528124969222</v>
+        <v>2470.7528124969222</v>
       </c>
       <c r="H152" s="32" t="s">
         <v>45</v>
@@ -5868,7 +5868,7 @@
         <v>74</v>
       </c>
       <c r="G153" s="96">
-        <v>6000</v>
+        <v>6220</v>
       </c>
       <c r="H153" s="32" t="s">
         <v>77</v>
@@ -5884,7 +5884,7 @@
         <v>75</v>
       </c>
       <c r="G154" s="96">
-        <v>-111264.30729151274</v>
+        <v>-112075.30729151274</v>
       </c>
       <c r="H154" s="32" t="s">
         <v>77</v>
@@ -5900,7 +5900,7 @@
         <v>76</v>
       </c>
       <c r="G155" s="97">
-        <v>8853.75</v>
+        <v>19994.75</v>
       </c>
       <c r="H155" s="22" t="s">
         <v>77</v>
@@ -7831,16 +7831,16 @@
         <v>78</v>
       </c>
       <c r="G298" s="98">
-        <v>-14.306847027370342</v>
+        <v>-14.404762725805853</v>
       </c>
       <c r="H298" s="99">
-        <v>1.1384535611829807</v>
+        <v>2.5773778416557276</v>
       </c>
       <c r="I298" s="100">
-        <v>14.306847027370342</v>
+        <v>14.417495121253204</v>
       </c>
       <c r="J298" s="100">
-        <v>-1.1384535611829807</v>
+        <v>-2.5646454462083761</v>
       </c>
       <c r="K298" s="66" t="s">
         <v>49</v>
@@ -7862,13 +7862,13 @@
         <v>79</v>
       </c>
       <c r="G299" s="106">
-        <v>-0.28723154969610915</v>
+        <v>-0.16131947668955751</v>
       </c>
       <c r="H299" s="107">
         <v>0</v>
       </c>
       <c r="I299" s="108">
-        <v>0.48427446381205219</v>
+        <v>0.63847509064723651</v>
       </c>
       <c r="J299" s="108">
         <v>0</v>
@@ -7896,13 +7896,13 @@
         <v>0</v>
       </c>
       <c r="H300" s="107">
-        <v>1.1744446908669197</v>
+        <v>1.1730328093999551</v>
       </c>
       <c r="I300" s="108">
         <v>0</v>
       </c>
       <c r="J300" s="108">
-        <v>1.945950704375081</v>
+        <v>1.972827376736749</v>
       </c>
       <c r="K300" s="66" t="s">
         <v>49</v>
@@ -7924,16 +7924,16 @@
         <v>14</v>
       </c>
       <c r="G301" s="101">
-        <v>1.002492265856382</v>
+        <v>0.98970824724688566</v>
       </c>
       <c r="H301" s="102">
-        <v>11.297473084438773</v>
+        <v>7.7347667337475823</v>
       </c>
       <c r="I301" s="103">
-        <v>1.0002678016416993</v>
+        <v>0.98250165910483256</v>
       </c>
       <c r="J301" s="103">
-        <v>7.0579523003177087</v>
+        <v>5.7097065791599597</v>
       </c>
       <c r="K301" s="43">
         <v>1</v>
@@ -8623,7 +8623,7 @@
         <v>183</v>
       </c>
       <c r="G352" s="109">
-        <v>0</v>
+        <v>3.2181129493181351E-5</v>
       </c>
       <c r="H352" s="21" t="s">
         <v>22</v>
@@ -8639,7 +8639,7 @@
         <v>43</v>
       </c>
       <c r="G353" s="110">
-        <v>6.0410590049284091E-2</v>
+        <v>0.12875395066438466</v>
       </c>
       <c r="H353" s="32" t="s">
         <v>22</v>
@@ -8655,7 +8655,7 @@
         <v>41</v>
       </c>
       <c r="G354" s="111">
-        <v>0.67384530726401448</v>
+        <v>0.67827784300091765</v>
       </c>
       <c r="H354" s="22" t="s">
         <v>22</v>
@@ -8671,7 +8671,7 @@
         <v>185</v>
       </c>
       <c r="G355" s="124">
-        <v>6.1597119942547407E-2</v>
+        <v>6.3760345955856043E-2</v>
       </c>
       <c r="H355" s="125" t="s">
         <v>42</v>
@@ -8687,7 +8687,7 @@
         <v>186</v>
       </c>
       <c r="G356" s="110">
-        <v>8.2511818423049242E-4</v>
+        <v>1.718446461350661E-3</v>
       </c>
       <c r="H356" s="32" t="s">
         <v>187</v>
@@ -8703,7 +8703,7 @@
         <v>189</v>
       </c>
       <c r="G357" s="111">
-        <v>8.8489401794835387E-3</v>
+        <v>8.9041754905022936E-3</v>
       </c>
       <c r="H357" s="22" t="s">
         <v>187</v>

--- a/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Output.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 1 TEST/2024_SE160A_MATLAB_Spar_Student_Project/2024_SE160A_MATLAB_Spar_Student_Project/SE160A_1_Spar_Analysis_Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 1 TEST\2024_SE160A_MATLAB_Spar_Student_Project\2024_SE160A_MATLAB_Spar_Student_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE81504-D94C-42ED-BD06-A03C13F24220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9AC564-C3CB-408B-B57A-90D7F59556DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2560,7 +2560,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44450B71-6273-DA15-F3F1-917B7B7A150E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53DF4C15-9B39-B29F-CE38-E120030F8C22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2610,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01EDE8B8-34D8-550A-D8AE-77B00985669F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF37C89D-9B10-E7C8-B058-768CBC37C46B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2660,7 +2660,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{759EC6BD-1E88-580E-E518-BF3A26DC0A2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C2C0218-D647-4212-0BF3-7F0533CB365D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2710,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{041C26FD-FBD7-C6A8-4292-D30E7B19CDF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DD744A-C9F1-3751-27E7-F025823D6685}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2760,7 +2760,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{672BEF98-9AF0-6C60-78A7-E8435B82666C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{984A64E5-918F-5E7A-8EE4-AB74E191405B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2810,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA3FEFE8-7AD9-91FE-8CA4-68BCCA09C745}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ACF7C8E-E918-BE2C-BE80-0AE300060134}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,7 +2860,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F0F27B2-B7CF-58AB-014F-0CA5661C64D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343947C6-415B-1076-18B3-7D0EA6193837}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2910,7 +2910,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E05301-B007-922F-1833-ADB4D56B70F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ED2AAC9-D2D7-B11C-6236-D1FE9125D948}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2960,7 +2960,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B2494A9-3756-75EC-CE44-E3BA8BDA0370}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1D3E3D2-B9DE-5F78-C919-948ECEF7750C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3010,7 +3010,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D61A1C5-F32C-E907-75A9-FC5D3547F056}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A9F61CE-8727-20A3-6479-A531D90FF877}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3060,7 +3060,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1618D0CF-1D63-F59E-C6C6-6D5D00B17055}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BAA8F3E-195D-A2E0-0852-FAB4045957F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3110,7 +3110,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D51DD1-9A2B-9FD2-06B0-F7AC747A50D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2579E3C4-680C-3059-9CEB-D6685C300105}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3160,7 +3160,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{721AB728-75F3-4311-4890-63DE6E3B6B50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F5E3F7C-3CD5-7BA0-4A7B-E4F3442D0793}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3210,7 +3210,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B6C48D-1C99-0F17-E1B7-196B8B94BE89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA4AEB6-EB5B-AE50-1F34-0790A47F229E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3260,7 +3260,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{197D2F00-9091-4641-F426-9959214850BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F31DAFB4-D6B1-D14F-8FE7-F16E2E6F125D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3310,7 +3310,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489B9254-A3C3-1AB2-CDCD-D471CC2D1EEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C797258-51C8-7A82-D038-ED0EAD8BF9F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3360,7 +3360,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBAF7C8D-614F-E19C-554A-476FDD061F60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DB88E34-B6CF-CB39-267F-3D8E13D053B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4294,10 +4294,10 @@
         <v>112</v>
       </c>
       <c r="G46" s="89">
-        <v>0.2555</v>
+        <v>0</v>
       </c>
       <c r="H46" s="86">
-        <v>0.75549999999999995</v>
+        <v>0</v>
       </c>
       <c r="I46" s="9">
         <v>1</v>
@@ -4316,10 +4316,10 @@
         <v>106</v>
       </c>
       <c r="G47" s="90">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H47" s="93">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I47" s="48" t="s">
         <v>45</v>
@@ -4338,10 +4338,10 @@
         <v>107</v>
       </c>
       <c r="G48" s="90">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="H48" s="93">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="I48" s="48" t="s">
         <v>45</v>
@@ -4360,10 +4360,10 @@
         <v>108</v>
       </c>
       <c r="G49" s="90">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H49" s="93">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I49" s="48" t="s">
         <v>45</v>
@@ -4382,10 +4382,10 @@
         <v>117</v>
       </c>
       <c r="G50" s="90">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="H50" s="93">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="I50" s="48" t="s">
         <v>45</v>
@@ -4404,10 +4404,10 @@
         <v>119</v>
       </c>
       <c r="G51" s="90">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H51" s="93">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I51" s="48" t="s">
         <v>45</v>
@@ -4426,10 +4426,10 @@
         <v>121</v>
       </c>
       <c r="G52" s="91">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H52" s="94">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I52" s="49" t="s">
         <v>45</v>
@@ -5820,7 +5820,7 @@
         <v>73</v>
       </c>
       <c r="G150" s="95">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H150" s="21" t="s">
         <v>45</v>
@@ -5836,7 +5836,7 @@
         <v>71</v>
       </c>
       <c r="G151" s="96">
-        <v>374.75714285714287</v>
+        <v>154.75714285714287</v>
       </c>
       <c r="H151" s="32" t="s">
         <v>45</v>
@@ -5852,7 +5852,7 @@
         <v>72</v>
       </c>
       <c r="G152" s="96">
-        <v>2470.7528124969222</v>
+        <v>2450.7528124969222</v>
       </c>
       <c r="H152" s="32" t="s">
         <v>45</v>
@@ -5868,7 +5868,7 @@
         <v>74</v>
       </c>
       <c r="G153" s="96">
-        <v>6220</v>
+        <v>6000</v>
       </c>
       <c r="H153" s="32" t="s">
         <v>77</v>
@@ -5884,7 +5884,7 @@
         <v>75</v>
       </c>
       <c r="G154" s="96">
-        <v>-112075.30729151274</v>
+        <v>-111264.30729151274</v>
       </c>
       <c r="H154" s="32" t="s">
         <v>77</v>
@@ -5900,7 +5900,7 @@
         <v>76</v>
       </c>
       <c r="G155" s="97">
-        <v>19994.75</v>
+        <v>8853.75</v>
       </c>
       <c r="H155" s="22" t="s">
         <v>77</v>
@@ -7831,16 +7831,16 @@
         <v>78</v>
       </c>
       <c r="G298" s="98">
-        <v>-14.404762725805853</v>
+        <v>-14.306847027370342</v>
       </c>
       <c r="H298" s="99">
-        <v>2.5773778416557276</v>
+        <v>1.1384535611829807</v>
       </c>
       <c r="I298" s="100">
-        <v>14.417495121253204</v>
+        <v>14.306847027370342</v>
       </c>
       <c r="J298" s="100">
-        <v>-2.5646454462083761</v>
+        <v>-1.1384535611829807</v>
       </c>
       <c r="K298" s="66" t="s">
         <v>49</v>
@@ -7862,13 +7862,13 @@
         <v>79</v>
       </c>
       <c r="G299" s="106">
-        <v>-0.16131947668955751</v>
+        <v>-0.28723154969610915</v>
       </c>
       <c r="H299" s="107">
         <v>0</v>
       </c>
       <c r="I299" s="108">
-        <v>0.63847509064723651</v>
+        <v>0.48427446381205219</v>
       </c>
       <c r="J299" s="108">
         <v>0</v>
@@ -7896,13 +7896,13 @@
         <v>0</v>
       </c>
       <c r="H300" s="107">
-        <v>1.1730328093999551</v>
+        <v>1.1744446908669197</v>
       </c>
       <c r="I300" s="108">
         <v>0</v>
       </c>
       <c r="J300" s="108">
-        <v>1.972827376736749</v>
+        <v>1.945950704375081</v>
       </c>
       <c r="K300" s="66" t="s">
         <v>49</v>
@@ -7924,16 +7924,16 @@
         <v>14</v>
       </c>
       <c r="G301" s="101">
-        <v>0.98970824724688566</v>
+        <v>1.002492265856382</v>
       </c>
       <c r="H301" s="102">
-        <v>7.7347667337475823</v>
+        <v>11.297473084438773</v>
       </c>
       <c r="I301" s="103">
-        <v>0.98250165910483256</v>
+        <v>1.0002678016416993</v>
       </c>
       <c r="J301" s="103">
-        <v>5.7097065791599597</v>
+        <v>7.0579523003177087</v>
       </c>
       <c r="K301" s="43">
         <v>1</v>
@@ -8623,7 +8623,7 @@
         <v>183</v>
       </c>
       <c r="G352" s="109">
-        <v>3.2181129493181351E-5</v>
+        <v>0</v>
       </c>
       <c r="H352" s="21" t="s">
         <v>22</v>
@@ -8639,7 +8639,7 @@
         <v>43</v>
       </c>
       <c r="G353" s="110">
-        <v>0.12875395066438466</v>
+        <v>6.0410590049284091E-2</v>
       </c>
       <c r="H353" s="32" t="s">
         <v>22</v>
@@ -8655,7 +8655,7 @@
         <v>41</v>
       </c>
       <c r="G354" s="111">
-        <v>0.67827784300091765</v>
+        <v>0.67384530726401448</v>
       </c>
       <c r="H354" s="22" t="s">
         <v>22</v>
@@ -8671,7 +8671,7 @@
         <v>185</v>
       </c>
       <c r="G355" s="124">
-        <v>6.3760345955856043E-2</v>
+        <v>6.1597119942547407E-2</v>
       </c>
       <c r="H355" s="125" t="s">
         <v>42</v>
@@ -8687,7 +8687,7 @@
         <v>186</v>
       </c>
       <c r="G356" s="110">
-        <v>1.718446461350661E-3</v>
+        <v>8.2511818423049242E-4</v>
       </c>
       <c r="H356" s="32" t="s">
         <v>187</v>
@@ -8703,7 +8703,7 @@
         <v>189</v>
       </c>
       <c r="G357" s="111">
-        <v>8.9041754905022936E-3</v>
+        <v>8.8489401794835387E-3</v>
       </c>
       <c r="H357" s="22" t="s">
         <v>187</v>
